--- a/import/articles.xlsx
+++ b/import/articles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,18 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,16 +126,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1.jpg,p2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1).jpg,(2).jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3).jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?php
+$array1 = array("color" =&gt; "red", 2, 4);
+$array2 = array("a", "b", "color" =&gt; "green", "shape" =&gt; "trapezoid", 4);
+$result = array_merge($array1, $array2);
+print_r($result);
+?&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.343,244.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.343,244.35</t>
+  </si>
+  <si>
+    <t>12.343,244.36</t>
   </si>
 </sst>
 </file>
@@ -204,7 +231,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -512,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -593,7 +623,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>43636</v>
@@ -602,19 +632,19 @@
         <v>43637</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2">
-        <v>12244</v>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -635,31 +665,161 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
         <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="39.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43636</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43638</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43646</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43667</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -667,8 +827,13 @@
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1"/>
     <hyperlink ref="R2" r:id="rId2"/>
+    <hyperlink ref="Q3" r:id="rId3"/>
+    <hyperlink ref="R3" r:id="rId4"/>
+    <hyperlink ref="Q4" r:id="rId5"/>
+    <hyperlink ref="R4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
